--- a/数据整理/stocks/A股/科创板/688121-卓然股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688121-卓然股份.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -697,7 +698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -708,17 +709,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -728,13 +749,179 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1255</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011458</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1768</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011459</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>2.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688121-卓然股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688121-卓然股份.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -868,7 +869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -879,17 +880,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -899,14 +920,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.37</v>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9011</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -915,13 +958,233 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8704</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4329</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011458</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1800</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011459</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>2.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688121-卓然股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688121-卓然股份.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,6 +453,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -514,26 +598,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>36.92</t>
+          <t>19.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.45</t>
+          <t>92.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3070</t>
+          <t>0.9011</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -552,26 +636,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.18</t>
+          <t>26.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.43</t>
+          <t>93.74</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5237</t>
+          <t>0.8704</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -590,26 +674,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.54</t>
+          <t>12.96</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.43</t>
+          <t>93.74</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3242</t>
+          <t>0.4329</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -628,26 +712,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.04</t>
+          <t>93.42</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0962</t>
+          <t>0.1800</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -666,26 +750,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.04</t>
+          <t>93.42</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0839</t>
+          <t>0.0651</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -693,7 +777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -863,7 +947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -930,26 +1014,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.59</t>
+          <t>36.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>90.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9011</t>
+          <t>1.3070</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -968,26 +1052,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>26.06</t>
+          <t>12.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>87.43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8704</t>
+          <t>0.5237</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1006,26 +1090,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12.96</t>
+          <t>7.54</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>87.43</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4329</t>
+          <t>0.3242</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1044,26 +1128,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.42</t>
+          <t>88.04</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1800</t>
+          <t>0.0962</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1082,110 +1166,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.42</t>
+          <t>88.04</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0651</t>
+          <t>0.0839</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.45</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.37</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.34</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688121-卓然股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688121-卓然股份.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>2.45</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>1.37</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>2.34</v>
       </c>
     </row>
@@ -532,6 +549,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5708</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -777,7 +888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -947,7 +1058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688121-卓然股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688121-卓然股份.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0.57</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>2.45</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>1.37</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.34</v>
       </c>
     </row>
@@ -549,6 +566,556 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4821</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4147</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2509</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013627</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1549</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1504</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013626</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011346</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>淳厚鑫淳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012454</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012455</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002584</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富安达长盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>016214</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富安达长盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -642,7 +1209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -888,7 +1455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1058,7 +1625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
